--- a/ConvertedEqual/Maryland_Converted.xlsx
+++ b/ConvertedEqual/Maryland_Converted.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="287">
   <si>
     <t>Policy/Closing</t>
   </si>
@@ -840,6 +840,42 @@
   </si>
   <si>
     <t>9/29/2020</t>
+  </si>
+  <si>
+    <t>9/30/2020</t>
+  </si>
+  <si>
+    <t>10/1/2020</t>
+  </si>
+  <si>
+    <t>10/2/2020</t>
+  </si>
+  <si>
+    <t>10/3/2020</t>
+  </si>
+  <si>
+    <t>10/4/2020</t>
+  </si>
+  <si>
+    <t>10/5/2020</t>
+  </si>
+  <si>
+    <t>10/6/2020</t>
+  </si>
+  <si>
+    <t>10/7/2020</t>
+  </si>
+  <si>
+    <t>10/8/2020</t>
+  </si>
+  <si>
+    <t>10/9/2020</t>
+  </si>
+  <si>
+    <t>10/10/2020</t>
+  </si>
+  <si>
+    <t>10/11/2020</t>
   </si>
 </sst>
 </file>
@@ -1201,7 +1237,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AL221"/>
+  <dimension ref="A1:AL233"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1716,7 +1752,7 @@
         <v>0.1666666667</v>
       </c>
       <c r="W7">
-        <v>0.3333333333</v>
+        <v>0</v>
       </c>
       <c r="X7">
         <v>0.1111111111</v>
@@ -1737,10 +1773,10 @@
         <v>0.5</v>
       </c>
       <c r="AD7">
-        <v>0.3333333333</v>
+        <v>0</v>
       </c>
       <c r="AE7">
-        <v>0.3333333333</v>
+        <v>0</v>
       </c>
       <c r="AF7">
         <v>0</v>
@@ -1761,7 +1797,7 @@
         <v>0.1111111111</v>
       </c>
       <c r="AL7">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:38">
@@ -3506,7 +3542,7 @@
         <v>0</v>
       </c>
       <c r="AL23">
-        <v>0.03846153846153846</v>
+        <v>0.04166666666666666</v>
       </c>
     </row>
     <row r="24" spans="1:38">
@@ -3622,7 +3658,7 @@
         <v>0</v>
       </c>
       <c r="AL24">
-        <v>0.3931623931615384</v>
+        <v>0.4259259259249999</v>
       </c>
     </row>
     <row r="25" spans="1:38">
@@ -3738,7 +3774,7 @@
         <v>0</v>
       </c>
       <c r="AL25">
-        <v>0.3931623931615384</v>
+        <v>0.4259259259249999</v>
       </c>
     </row>
     <row r="26" spans="1:38">
@@ -3854,7 +3890,7 @@
         <v>0</v>
       </c>
       <c r="AL26">
-        <v>0.3931623931615384</v>
+        <v>0.4259259259249999</v>
       </c>
     </row>
     <row r="27" spans="1:38">
@@ -3970,7 +4006,7 @@
         <v>0</v>
       </c>
       <c r="AL27">
-        <v>0.4316239316230769</v>
+        <v>0.4675925925916666</v>
       </c>
     </row>
     <row r="28" spans="1:38">
@@ -4086,7 +4122,7 @@
         <v>0</v>
       </c>
       <c r="AL28">
-        <v>0.4316239316230769</v>
+        <v>0.4675925925916666</v>
       </c>
     </row>
     <row r="29" spans="1:38">
@@ -4202,7 +4238,7 @@
         <v>0</v>
       </c>
       <c r="AL29">
-        <v>0.4316239316230769</v>
+        <v>0.4675925925916666</v>
       </c>
     </row>
     <row r="30" spans="1:38">
@@ -4318,7 +4354,7 @@
         <v>0</v>
       </c>
       <c r="AL30">
-        <v>0.4316239316230769</v>
+        <v>0.4675925925916666</v>
       </c>
     </row>
     <row r="31" spans="1:38">
@@ -4434,7 +4470,7 @@
         <v>1</v>
       </c>
       <c r="AL31">
-        <v>0.6666666666692309</v>
+        <v>0.6388888889000001</v>
       </c>
     </row>
     <row r="32" spans="1:38">
@@ -4550,7 +4586,7 @@
         <v>1</v>
       </c>
       <c r="AL32">
-        <v>0.6666666666692309</v>
+        <v>0.6388888889000001</v>
       </c>
     </row>
     <row r="33" spans="1:38">
@@ -4666,7 +4702,7 @@
         <v>1</v>
       </c>
       <c r="AL33">
-        <v>0.6666666666692309</v>
+        <v>0.6388888889000001</v>
       </c>
     </row>
     <row r="34" spans="1:38">
@@ -4782,7 +4818,7 @@
         <v>1</v>
       </c>
       <c r="AL34">
-        <v>0.6666666666692309</v>
+        <v>0.6388888889000001</v>
       </c>
     </row>
     <row r="35" spans="1:38">
@@ -4898,7 +4934,7 @@
         <v>1</v>
       </c>
       <c r="AL35">
-        <v>0.6666666666692309</v>
+        <v>0.6388888889000001</v>
       </c>
     </row>
     <row r="36" spans="1:38">
@@ -5014,7 +5050,7 @@
         <v>1</v>
       </c>
       <c r="AL36">
-        <v>0.6666666666692309</v>
+        <v>0.6388888889000001</v>
       </c>
     </row>
     <row r="37" spans="1:38">
@@ -5130,7 +5166,7 @@
         <v>1</v>
       </c>
       <c r="AL37">
-        <v>0.6666666666692309</v>
+        <v>0.6388888889000001</v>
       </c>
     </row>
     <row r="38" spans="1:38">
@@ -5246,7 +5282,7 @@
         <v>1</v>
       </c>
       <c r="AL38">
-        <v>0.8461538461538463</v>
+        <v>0.8333333333416668</v>
       </c>
     </row>
     <row r="39" spans="1:38">
@@ -5362,7 +5398,7 @@
         <v>1</v>
       </c>
       <c r="AL39">
-        <v>0.8461538461538463</v>
+        <v>0.8333333333416668</v>
       </c>
     </row>
     <row r="40" spans="1:38">
@@ -5478,7 +5514,7 @@
         <v>1</v>
       </c>
       <c r="AL40">
-        <v>0.8461538461538463</v>
+        <v>0.8333333333416668</v>
       </c>
     </row>
     <row r="41" spans="1:38">
@@ -5594,7 +5630,7 @@
         <v>1</v>
       </c>
       <c r="AL41">
-        <v>0.8461538461538463</v>
+        <v>0.8333333333416668</v>
       </c>
     </row>
     <row r="42" spans="1:38">
@@ -5710,7 +5746,7 @@
         <v>1</v>
       </c>
       <c r="AL42">
-        <v>0.8461538461538463</v>
+        <v>0.8333333333416668</v>
       </c>
     </row>
     <row r="43" spans="1:38">
@@ -5826,7 +5862,7 @@
         <v>1</v>
       </c>
       <c r="AL43">
-        <v>0.8461538461538463</v>
+        <v>0.8333333333416668</v>
       </c>
     </row>
     <row r="44" spans="1:38">
@@ -5942,7 +5978,7 @@
         <v>1</v>
       </c>
       <c r="AL44">
-        <v>0.8461538461538463</v>
+        <v>0.8333333333416668</v>
       </c>
     </row>
     <row r="45" spans="1:38">
@@ -6058,7 +6094,7 @@
         <v>1</v>
       </c>
       <c r="AL45">
-        <v>0.8461538461538463</v>
+        <v>0.8333333333416668</v>
       </c>
     </row>
     <row r="46" spans="1:38">
@@ -6174,7 +6210,7 @@
         <v>1</v>
       </c>
       <c r="AL46">
-        <v>0.8461538461538463</v>
+        <v>0.8333333333416668</v>
       </c>
     </row>
     <row r="47" spans="1:38">
@@ -6290,7 +6326,7 @@
         <v>1</v>
       </c>
       <c r="AL47">
-        <v>0.8461538461538463</v>
+        <v>0.8333333333416668</v>
       </c>
     </row>
     <row r="48" spans="1:38">
@@ -6406,7 +6442,7 @@
         <v>1</v>
       </c>
       <c r="AL48">
-        <v>0.8461538461538463</v>
+        <v>0.8333333333416668</v>
       </c>
     </row>
     <row r="49" spans="1:38">
@@ -6522,7 +6558,7 @@
         <v>1</v>
       </c>
       <c r="AL49">
-        <v>0.8461538461538463</v>
+        <v>0.8333333333416668</v>
       </c>
     </row>
     <row r="50" spans="1:38">
@@ -6638,7 +6674,7 @@
         <v>1</v>
       </c>
       <c r="AL50">
-        <v>0.8461538461538463</v>
+        <v>0.8333333333416668</v>
       </c>
     </row>
     <row r="51" spans="1:38">
@@ -6754,7 +6790,7 @@
         <v>1</v>
       </c>
       <c r="AL51">
-        <v>0.8461538461538463</v>
+        <v>0.8333333333416668</v>
       </c>
     </row>
     <row r="52" spans="1:38">
@@ -6870,7 +6906,7 @@
         <v>1</v>
       </c>
       <c r="AL52">
-        <v>0.8461538461538463</v>
+        <v>0.8333333333416668</v>
       </c>
     </row>
     <row r="53" spans="1:38">
@@ -6986,7 +7022,7 @@
         <v>1</v>
       </c>
       <c r="AL53">
-        <v>0.8461538461538463</v>
+        <v>0.8333333333416668</v>
       </c>
     </row>
     <row r="54" spans="1:38">
@@ -7102,7 +7138,7 @@
         <v>1</v>
       </c>
       <c r="AL54">
-        <v>0.8461538461538463</v>
+        <v>0.8333333333416668</v>
       </c>
     </row>
     <row r="55" spans="1:38">
@@ -7218,7 +7254,7 @@
         <v>1</v>
       </c>
       <c r="AL55">
-        <v>0.8461538461538463</v>
+        <v>0.8333333333416668</v>
       </c>
     </row>
     <row r="56" spans="1:38">
@@ -7334,7 +7370,7 @@
         <v>1</v>
       </c>
       <c r="AL56">
-        <v>0.8461538461538463</v>
+        <v>0.8333333333416668</v>
       </c>
     </row>
     <row r="57" spans="1:38">
@@ -7450,7 +7486,7 @@
         <v>1</v>
       </c>
       <c r="AL57">
-        <v>0.9230769230769232</v>
+        <v>0.9166666666750002</v>
       </c>
     </row>
     <row r="58" spans="1:38">
@@ -7566,7 +7602,7 @@
         <v>1</v>
       </c>
       <c r="AL58">
-        <v>0.9230769230769232</v>
+        <v>0.9166666666750002</v>
       </c>
     </row>
     <row r="59" spans="1:38">
@@ -7682,7 +7718,7 @@
         <v>1</v>
       </c>
       <c r="AL59">
-        <v>0.9230769230769232</v>
+        <v>0.9166666666750002</v>
       </c>
     </row>
     <row r="60" spans="1:38">
@@ -7798,7 +7834,7 @@
         <v>1</v>
       </c>
       <c r="AL60">
-        <v>0.9230769230769232</v>
+        <v>0.9166666666750002</v>
       </c>
     </row>
     <row r="61" spans="1:38">
@@ -7914,7 +7950,7 @@
         <v>1</v>
       </c>
       <c r="AL61">
-        <v>0.9230769230769232</v>
+        <v>0.9166666666750002</v>
       </c>
     </row>
     <row r="62" spans="1:38">
@@ -8030,7 +8066,7 @@
         <v>1</v>
       </c>
       <c r="AL62">
-        <v>0.9230769230769232</v>
+        <v>0.9166666666750002</v>
       </c>
     </row>
     <row r="63" spans="1:38">
@@ -8146,7 +8182,7 @@
         <v>1</v>
       </c>
       <c r="AL63">
-        <v>0.9230769230769232</v>
+        <v>0.9166666666750002</v>
       </c>
     </row>
     <row r="64" spans="1:38">
@@ -8262,7 +8298,7 @@
         <v>1</v>
       </c>
       <c r="AL64">
-        <v>0.9230769230769232</v>
+        <v>0.9166666666750002</v>
       </c>
     </row>
     <row r="65" spans="1:38">
@@ -8378,7 +8414,7 @@
         <v>1</v>
       </c>
       <c r="AL65">
-        <v>0.9230769230769232</v>
+        <v>0.9166666666750002</v>
       </c>
     </row>
     <row r="66" spans="1:38">
@@ -8494,7 +8530,7 @@
         <v>1</v>
       </c>
       <c r="AL66">
-        <v>0.9230769230769232</v>
+        <v>0.9166666666750002</v>
       </c>
     </row>
     <row r="67" spans="1:38">
@@ -8610,7 +8646,7 @@
         <v>1</v>
       </c>
       <c r="AL67">
-        <v>0.9230769230769232</v>
+        <v>0.9166666666750002</v>
       </c>
     </row>
     <row r="68" spans="1:38">
@@ -8726,7 +8762,7 @@
         <v>1</v>
       </c>
       <c r="AL68">
-        <v>0.9230769230769232</v>
+        <v>0.9166666666750002</v>
       </c>
     </row>
     <row r="69" spans="1:38">
@@ -8842,7 +8878,7 @@
         <v>1</v>
       </c>
       <c r="AL69">
-        <v>0.9230769230769232</v>
+        <v>0.9166666666750002</v>
       </c>
     </row>
     <row r="70" spans="1:38">
@@ -8958,7 +8994,7 @@
         <v>1</v>
       </c>
       <c r="AL70">
-        <v>0.9230769230769232</v>
+        <v>0.9166666666750002</v>
       </c>
     </row>
     <row r="71" spans="1:38">
@@ -9074,7 +9110,7 @@
         <v>1</v>
       </c>
       <c r="AL71">
-        <v>0.9230769230769232</v>
+        <v>0.9166666666750002</v>
       </c>
     </row>
     <row r="72" spans="1:38">
@@ -9190,7 +9226,7 @@
         <v>1</v>
       </c>
       <c r="AL72">
-        <v>0.9230769230769232</v>
+        <v>0.9166666666750002</v>
       </c>
     </row>
     <row r="73" spans="1:38">
@@ -9306,7 +9342,7 @@
         <v>1</v>
       </c>
       <c r="AL73">
-        <v>0.9230769230769232</v>
+        <v>0.9166666666750002</v>
       </c>
     </row>
     <row r="74" spans="1:38">
@@ -9422,7 +9458,7 @@
         <v>1</v>
       </c>
       <c r="AL74">
-        <v>0.9230769230769232</v>
+        <v>0.9166666666750002</v>
       </c>
     </row>
     <row r="75" spans="1:38">
@@ -9538,7 +9574,7 @@
         <v>1</v>
       </c>
       <c r="AL75">
-        <v>0.9230769230769232</v>
+        <v>0.9166666666750002</v>
       </c>
     </row>
     <row r="76" spans="1:38">
@@ -9654,7 +9690,7 @@
         <v>1</v>
       </c>
       <c r="AL76">
-        <v>0.9230769230769232</v>
+        <v>0.9166666666750002</v>
       </c>
     </row>
     <row r="77" spans="1:38">
@@ -9770,7 +9806,7 @@
         <v>1</v>
       </c>
       <c r="AL77">
-        <v>0.880341880346154</v>
+        <v>0.8703703703833333</v>
       </c>
     </row>
     <row r="78" spans="1:38">
@@ -9886,7 +9922,7 @@
         <v>1</v>
       </c>
       <c r="AL78">
-        <v>0.880341880346154</v>
+        <v>0.8703703703833333</v>
       </c>
     </row>
     <row r="79" spans="1:38">
@@ -10002,7 +10038,7 @@
         <v>1</v>
       </c>
       <c r="AL79">
-        <v>0.880341880346154</v>
+        <v>0.8703703703833333</v>
       </c>
     </row>
     <row r="80" spans="1:38">
@@ -10118,7 +10154,7 @@
         <v>1</v>
       </c>
       <c r="AL80">
-        <v>0.880341880346154</v>
+        <v>0.8703703703833333</v>
       </c>
     </row>
     <row r="81" spans="1:38">
@@ -10234,7 +10270,7 @@
         <v>1</v>
       </c>
       <c r="AL81">
-        <v>0.880341880346154</v>
+        <v>0.8703703703833333</v>
       </c>
     </row>
     <row r="82" spans="1:38">
@@ -10350,7 +10386,7 @@
         <v>1</v>
       </c>
       <c r="AL82">
-        <v>0.880341880346154</v>
+        <v>0.8703703703833333</v>
       </c>
     </row>
     <row r="83" spans="1:38">
@@ -10466,7 +10502,7 @@
         <v>1</v>
       </c>
       <c r="AL83">
-        <v>0.880341880346154</v>
+        <v>0.8703703703833333</v>
       </c>
     </row>
     <row r="84" spans="1:38">
@@ -10582,7 +10618,7 @@
         <v>1</v>
       </c>
       <c r="AL84">
-        <v>0.880341880346154</v>
+        <v>0.8703703703833333</v>
       </c>
     </row>
     <row r="85" spans="1:38">
@@ -10698,7 +10734,7 @@
         <v>1</v>
       </c>
       <c r="AL85">
-        <v>0.713675213676923</v>
+        <v>0.7175925926000001</v>
       </c>
     </row>
     <row r="86" spans="1:38">
@@ -10814,7 +10850,7 @@
         <v>1</v>
       </c>
       <c r="AL86">
-        <v>0.713675213676923</v>
+        <v>0.7175925926000001</v>
       </c>
     </row>
     <row r="87" spans="1:38">
@@ -10930,7 +10966,7 @@
         <v>1</v>
       </c>
       <c r="AL87">
-        <v>0.713675213676923</v>
+        <v>0.7175925926000001</v>
       </c>
     </row>
     <row r="88" spans="1:38">
@@ -11046,7 +11082,7 @@
         <v>1</v>
       </c>
       <c r="AL88">
-        <v>0.713675213676923</v>
+        <v>0.7175925926000001</v>
       </c>
     </row>
     <row r="89" spans="1:38">
@@ -11162,7 +11198,7 @@
         <v>1</v>
       </c>
       <c r="AL89">
-        <v>0.713675213676923</v>
+        <v>0.7175925926000001</v>
       </c>
     </row>
     <row r="90" spans="1:38">
@@ -11278,7 +11314,7 @@
         <v>1</v>
       </c>
       <c r="AL90">
-        <v>0.713675213676923</v>
+        <v>0.7175925926000001</v>
       </c>
     </row>
     <row r="91" spans="1:38">
@@ -11394,7 +11430,7 @@
         <v>1</v>
       </c>
       <c r="AL91">
-        <v>0.713675213676923</v>
+        <v>0.7175925926000001</v>
       </c>
     </row>
     <row r="92" spans="1:38">
@@ -11510,7 +11546,7 @@
         <v>1</v>
       </c>
       <c r="AL92">
-        <v>0.713675213676923</v>
+        <v>0.7175925926000001</v>
       </c>
     </row>
     <row r="93" spans="1:38">
@@ -11626,7 +11662,7 @@
         <v>1</v>
       </c>
       <c r="AL93">
-        <v>0.713675213676923</v>
+        <v>0.7175925926000001</v>
       </c>
     </row>
     <row r="94" spans="1:38">
@@ -11742,7 +11778,7 @@
         <v>1</v>
       </c>
       <c r="AL94">
-        <v>0.713675213676923</v>
+        <v>0.7175925926000001</v>
       </c>
     </row>
     <row r="95" spans="1:38">
@@ -11858,7 +11894,7 @@
         <v>1</v>
       </c>
       <c r="AL95">
-        <v>0.713675213676923</v>
+        <v>0.7175925926000001</v>
       </c>
     </row>
     <row r="96" spans="1:38">
@@ -11974,7 +12010,7 @@
         <v>1</v>
       </c>
       <c r="AL96">
-        <v>0.713675213676923</v>
+        <v>0.7175925926000001</v>
       </c>
     </row>
     <row r="97" spans="1:38">
@@ -12090,7 +12126,7 @@
         <v>1</v>
       </c>
       <c r="AL97">
-        <v>0.713675213676923</v>
+        <v>0.7175925926000001</v>
       </c>
     </row>
     <row r="98" spans="1:38">
@@ -12206,7 +12242,7 @@
         <v>1</v>
       </c>
       <c r="AL98">
-        <v>0.713675213676923</v>
+        <v>0.7175925926000001</v>
       </c>
     </row>
     <row r="99" spans="1:38">
@@ -12322,7 +12358,7 @@
         <v>1</v>
       </c>
       <c r="AL99">
-        <v>0.649572649576923</v>
+        <v>0.6481481481583333</v>
       </c>
     </row>
     <row r="100" spans="1:38">
@@ -12438,7 +12474,7 @@
         <v>1</v>
       </c>
       <c r="AL100">
-        <v>0.649572649576923</v>
+        <v>0.6481481481583333</v>
       </c>
     </row>
     <row r="101" spans="1:38">
@@ -12554,7 +12590,7 @@
         <v>1</v>
       </c>
       <c r="AL101">
-        <v>0.649572649576923</v>
+        <v>0.6481481481583333</v>
       </c>
     </row>
     <row r="102" spans="1:38">
@@ -12670,7 +12706,7 @@
         <v>1</v>
       </c>
       <c r="AL102">
-        <v>0.649572649576923</v>
+        <v>0.6481481481583333</v>
       </c>
     </row>
     <row r="103" spans="1:38">
@@ -12786,7 +12822,7 @@
         <v>1</v>
       </c>
       <c r="AL103">
-        <v>0.649572649576923</v>
+        <v>0.6481481481583333</v>
       </c>
     </row>
     <row r="104" spans="1:38">
@@ -12902,7 +12938,7 @@
         <v>1</v>
       </c>
       <c r="AL104">
-        <v>0.649572649576923</v>
+        <v>0.6481481481583333</v>
       </c>
     </row>
     <row r="105" spans="1:38">
@@ -13018,7 +13054,7 @@
         <v>1</v>
       </c>
       <c r="AL105">
-        <v>0.649572649576923</v>
+        <v>0.6481481481583333</v>
       </c>
     </row>
     <row r="106" spans="1:38">
@@ -13134,7 +13170,7 @@
         <v>1</v>
       </c>
       <c r="AL106">
-        <v>0.5470085470076923</v>
+        <v>0.5925925925916666</v>
       </c>
     </row>
     <row r="107" spans="1:38">
@@ -13250,7 +13286,7 @@
         <v>1</v>
       </c>
       <c r="AL107">
-        <v>0.5470085470076923</v>
+        <v>0.5925925925916666</v>
       </c>
     </row>
     <row r="108" spans="1:38">
@@ -13366,7 +13402,7 @@
         <v>1</v>
       </c>
       <c r="AL108">
-        <v>0.5470085470076923</v>
+        <v>0.5925925925916666</v>
       </c>
     </row>
     <row r="109" spans="1:38">
@@ -13482,7 +13518,7 @@
         <v>1</v>
       </c>
       <c r="AL109">
-        <v>0.5470085470076923</v>
+        <v>0.5925925925916666</v>
       </c>
     </row>
     <row r="110" spans="1:38">
@@ -13598,7 +13634,7 @@
         <v>1</v>
       </c>
       <c r="AL110">
-        <v>0.5470085470076923</v>
+        <v>0.5925925925916666</v>
       </c>
     </row>
     <row r="111" spans="1:38">
@@ -13714,7 +13750,7 @@
         <v>1</v>
       </c>
       <c r="AL111">
-        <v>0.4700854700846154</v>
+        <v>0.5092592592583333</v>
       </c>
     </row>
     <row r="112" spans="1:38">
@@ -13830,7 +13866,7 @@
         <v>1</v>
       </c>
       <c r="AL112">
-        <v>0.4700854700846154</v>
+        <v>0.5092592592583333</v>
       </c>
     </row>
     <row r="113" spans="1:38">
@@ -13946,7 +13982,7 @@
         <v>0</v>
       </c>
       <c r="AL113">
-        <v>0.4230769230769231</v>
+        <v>0.4583333333333333</v>
       </c>
     </row>
     <row r="114" spans="1:38">
@@ -14062,7 +14098,7 @@
         <v>0</v>
       </c>
       <c r="AL114">
-        <v>0.4230769230769231</v>
+        <v>0.4583333333333333</v>
       </c>
     </row>
     <row r="115" spans="1:38">
@@ -14178,7 +14214,7 @@
         <v>0</v>
       </c>
       <c r="AL115">
-        <v>0.4230769230769231</v>
+        <v>0.4583333333333333</v>
       </c>
     </row>
     <row r="116" spans="1:38">
@@ -14294,7 +14330,7 @@
         <v>0</v>
       </c>
       <c r="AL116">
-        <v>0.4230769230769231</v>
+        <v>0.4583333333333333</v>
       </c>
     </row>
     <row r="117" spans="1:38">
@@ -14410,7 +14446,7 @@
         <v>0</v>
       </c>
       <c r="AL117">
-        <v>0.4230769230769231</v>
+        <v>0.4583333333333333</v>
       </c>
     </row>
     <row r="118" spans="1:38">
@@ -14526,7 +14562,7 @@
         <v>0</v>
       </c>
       <c r="AL118">
-        <v>0.4230769230769231</v>
+        <v>0.4583333333333333</v>
       </c>
     </row>
     <row r="119" spans="1:38">
@@ -14642,7 +14678,7 @@
         <v>0</v>
       </c>
       <c r="AL119">
-        <v>0.4230769230769231</v>
+        <v>0.4583333333333333</v>
       </c>
     </row>
     <row r="120" spans="1:38">
@@ -14758,7 +14794,7 @@
         <v>0</v>
       </c>
       <c r="AL120">
-        <v>0.2692307692307692</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="121" spans="1:38">
@@ -14874,7 +14910,7 @@
         <v>0</v>
       </c>
       <c r="AL121">
-        <v>0.2692307692307692</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="122" spans="1:38">
@@ -14990,7 +15026,7 @@
         <v>0</v>
       </c>
       <c r="AL122">
-        <v>0.2692307692307692</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="123" spans="1:38">
@@ -15106,7 +15142,7 @@
         <v>0</v>
       </c>
       <c r="AL123">
-        <v>0.2692307692307692</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="124" spans="1:38">
@@ -15222,7 +15258,7 @@
         <v>0</v>
       </c>
       <c r="AL124">
-        <v>0.2692307692307692</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="125" spans="1:38">
@@ -15338,7 +15374,7 @@
         <v>0</v>
       </c>
       <c r="AL125">
-        <v>0.2692307692307692</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="126" spans="1:38">
@@ -15454,7 +15490,7 @@
         <v>0</v>
       </c>
       <c r="AL126">
-        <v>0.2692307692307692</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="127" spans="1:38">
@@ -15570,7 +15606,7 @@
         <v>0</v>
       </c>
       <c r="AL127">
-        <v>0.2692307692307692</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="128" spans="1:38">
@@ -15686,7 +15722,7 @@
         <v>0</v>
       </c>
       <c r="AL128">
-        <v>0.2692307692307692</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="129" spans="1:38">
@@ -15802,7 +15838,7 @@
         <v>0</v>
       </c>
       <c r="AL129">
-        <v>0.2692307692307692</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="130" spans="1:38">
@@ -15918,7 +15954,7 @@
         <v>0</v>
       </c>
       <c r="AL130">
-        <v>0.2692307692307692</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="131" spans="1:38">
@@ -16034,7 +16070,7 @@
         <v>0</v>
       </c>
       <c r="AL131">
-        <v>0.2692307692307692</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="132" spans="1:38">
@@ -16150,7 +16186,7 @@
         <v>0</v>
       </c>
       <c r="AL132">
-        <v>0.2692307692307692</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="133" spans="1:38">
@@ -16266,7 +16302,7 @@
         <v>0</v>
       </c>
       <c r="AL133">
-        <v>0.2692307692307692</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="134" spans="1:38">
@@ -16382,7 +16418,7 @@
         <v>0</v>
       </c>
       <c r="AL134">
-        <v>0.2692307692307692</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="135" spans="1:38">
@@ -16498,7 +16534,7 @@
         <v>0</v>
       </c>
       <c r="AL135">
-        <v>0.2692307692307692</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="136" spans="1:38">
@@ -16614,7 +16650,7 @@
         <v>0</v>
       </c>
       <c r="AL136">
-        <v>0.2692307692307692</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="137" spans="1:38">
@@ -16730,7 +16766,7 @@
         <v>0</v>
       </c>
       <c r="AL137">
-        <v>0.2692307692307692</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="138" spans="1:38">
@@ -16846,7 +16882,7 @@
         <v>0</v>
       </c>
       <c r="AL138">
-        <v>0.2692307692307692</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="139" spans="1:38">
@@ -16962,7 +16998,7 @@
         <v>0</v>
       </c>
       <c r="AL139">
-        <v>0.2692307692307692</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="140" spans="1:38">
@@ -17078,7 +17114,7 @@
         <v>0</v>
       </c>
       <c r="AL140">
-        <v>0.2692307692307692</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="141" spans="1:38">
@@ -17194,7 +17230,7 @@
         <v>0</v>
       </c>
       <c r="AL141">
-        <v>0.2692307692307692</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="142" spans="1:38">
@@ -17310,7 +17346,7 @@
         <v>0</v>
       </c>
       <c r="AL142">
-        <v>0.2692307692307692</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="143" spans="1:38">
@@ -17426,7 +17462,7 @@
         <v>0</v>
       </c>
       <c r="AL143">
-        <v>0.2692307692307692</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="144" spans="1:38">
@@ -17542,7 +17578,7 @@
         <v>0</v>
       </c>
       <c r="AL144">
-        <v>0.2692307692307692</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="145" spans="1:38">
@@ -17658,7 +17694,7 @@
         <v>0</v>
       </c>
       <c r="AL145">
-        <v>0.2692307692307692</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="146" spans="1:38">
@@ -17774,7 +17810,7 @@
         <v>0</v>
       </c>
       <c r="AL146">
-        <v>0.2692307692307692</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="147" spans="1:38">
@@ -17890,7 +17926,7 @@
         <v>0</v>
       </c>
       <c r="AL147">
-        <v>0.2692307692307692</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="148" spans="1:38">
@@ -18006,7 +18042,7 @@
         <v>0</v>
       </c>
       <c r="AL148">
-        <v>0.2692307692307692</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="149" spans="1:38">
@@ -18122,7 +18158,7 @@
         <v>0</v>
       </c>
       <c r="AL149">
-        <v>0.2692307692307692</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="150" spans="1:38">
@@ -18238,7 +18274,7 @@
         <v>0</v>
       </c>
       <c r="AL150">
-        <v>0.2692307692307692</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="151" spans="1:38">
@@ -18354,7 +18390,7 @@
         <v>0</v>
       </c>
       <c r="AL151">
-        <v>0.2692307692307692</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="152" spans="1:38">
@@ -18470,7 +18506,7 @@
         <v>0</v>
       </c>
       <c r="AL152">
-        <v>0.2692307692307692</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="153" spans="1:38">
@@ -18586,7 +18622,7 @@
         <v>0</v>
       </c>
       <c r="AL153">
-        <v>0.2692307692307692</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="154" spans="1:38">
@@ -18702,7 +18738,7 @@
         <v>0</v>
       </c>
       <c r="AL154">
-        <v>0.2692307692307692</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="155" spans="1:38">
@@ -18818,7 +18854,7 @@
         <v>0</v>
       </c>
       <c r="AL155">
-        <v>0.2692307692307692</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="156" spans="1:38">
@@ -18934,7 +18970,7 @@
         <v>0</v>
       </c>
       <c r="AL156">
-        <v>0.2692307692307692</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="157" spans="1:38">
@@ -19050,7 +19086,7 @@
         <v>0</v>
       </c>
       <c r="AL157">
-        <v>0.2692307692307692</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="158" spans="1:38">
@@ -19166,7 +19202,7 @@
         <v>0</v>
       </c>
       <c r="AL158">
-        <v>0.2692307692307692</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="159" spans="1:38">
@@ -19282,7 +19318,7 @@
         <v>0</v>
       </c>
       <c r="AL159">
-        <v>0.2692307692307692</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="160" spans="1:38">
@@ -19398,7 +19434,7 @@
         <v>0</v>
       </c>
       <c r="AL160">
-        <v>0.2692307692307692</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="161" spans="1:38">
@@ -19514,7 +19550,7 @@
         <v>0</v>
       </c>
       <c r="AL161">
-        <v>0.2692307692307692</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="162" spans="1:38">
@@ -19630,7 +19666,7 @@
         <v>0</v>
       </c>
       <c r="AL162">
-        <v>0.2692307692307692</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="163" spans="1:38">
@@ -19746,7 +19782,7 @@
         <v>0</v>
       </c>
       <c r="AL163">
-        <v>0.2692307692307692</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="164" spans="1:38">
@@ -19862,7 +19898,7 @@
         <v>0</v>
       </c>
       <c r="AL164">
-        <v>0.2692307692307692</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="165" spans="1:38">
@@ -19978,7 +20014,7 @@
         <v>0</v>
       </c>
       <c r="AL165">
-        <v>0.2692307692307692</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="166" spans="1:38">
@@ -20094,7 +20130,7 @@
         <v>0</v>
       </c>
       <c r="AL166">
-        <v>0.2692307692307692</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="167" spans="1:38">
@@ -20210,7 +20246,7 @@
         <v>0</v>
       </c>
       <c r="AL167">
-        <v>0.2692307692307692</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="168" spans="1:38">
@@ -20326,7 +20362,7 @@
         <v>0</v>
       </c>
       <c r="AL168">
-        <v>0.2692307692307692</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="169" spans="1:38">
@@ -20442,7 +20478,7 @@
         <v>0</v>
       </c>
       <c r="AL169">
-        <v>0.2692307692307692</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="170" spans="1:38">
@@ -20558,7 +20594,7 @@
         <v>0</v>
       </c>
       <c r="AL170">
-        <v>0.2692307692307692</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="171" spans="1:38">
@@ -20674,7 +20710,7 @@
         <v>0</v>
       </c>
       <c r="AL171">
-        <v>0.2692307692307692</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="172" spans="1:38">
@@ -20790,7 +20826,7 @@
         <v>0</v>
       </c>
       <c r="AL172">
-        <v>0.2692307692307692</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="173" spans="1:38">
@@ -20906,7 +20942,7 @@
         <v>0</v>
       </c>
       <c r="AL173">
-        <v>0.2692307692307692</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="174" spans="1:38">
@@ -21022,7 +21058,7 @@
         <v>0</v>
       </c>
       <c r="AL174">
-        <v>0.2692307692307692</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="175" spans="1:38">
@@ -21138,7 +21174,7 @@
         <v>0</v>
       </c>
       <c r="AL175">
-        <v>0.2692307692307692</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="176" spans="1:38">
@@ -21254,7 +21290,7 @@
         <v>0</v>
       </c>
       <c r="AL176">
-        <v>0.2692307692307692</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="177" spans="1:38">
@@ -21370,7 +21406,7 @@
         <v>0</v>
       </c>
       <c r="AL177">
-        <v>0.2692307692307692</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="178" spans="1:38">
@@ -21486,7 +21522,7 @@
         <v>0</v>
       </c>
       <c r="AL178">
-        <v>0.2692307692307692</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="179" spans="1:38">
@@ -21602,7 +21638,7 @@
         <v>0</v>
       </c>
       <c r="AL179">
-        <v>0.2692307692307692</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="180" spans="1:38">
@@ -21718,7 +21754,7 @@
         <v>0</v>
       </c>
       <c r="AL180">
-        <v>0.2692307692307692</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="181" spans="1:38">
@@ -21834,7 +21870,7 @@
         <v>0</v>
       </c>
       <c r="AL181">
-        <v>0.2692307692307692</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="182" spans="1:38">
@@ -21950,7 +21986,7 @@
         <v>0</v>
       </c>
       <c r="AL182">
-        <v>0.2692307692307692</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="183" spans="1:38">
@@ -22066,7 +22102,7 @@
         <v>0</v>
       </c>
       <c r="AL183">
-        <v>0.2692307692307692</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="184" spans="1:38">
@@ -22182,7 +22218,7 @@
         <v>0</v>
       </c>
       <c r="AL184">
-        <v>0.2692307692307692</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="185" spans="1:38">
@@ -22298,7 +22334,7 @@
         <v>0</v>
       </c>
       <c r="AL185">
-        <v>0.2692307692307692</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="186" spans="1:38">
@@ -22414,7 +22450,7 @@
         <v>0</v>
       </c>
       <c r="AL186">
-        <v>0.2692307692307692</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="187" spans="1:38">
@@ -22530,7 +22566,7 @@
         <v>0</v>
       </c>
       <c r="AL187">
-        <v>0.2692307692307692</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="188" spans="1:38">
@@ -22646,7 +22682,7 @@
         <v>0</v>
       </c>
       <c r="AL188">
-        <v>0.2692307692307692</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="189" spans="1:38">
@@ -22762,7 +22798,7 @@
         <v>0</v>
       </c>
       <c r="AL189">
-        <v>0.2692307692307692</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="190" spans="1:38">
@@ -22878,7 +22914,7 @@
         <v>0</v>
       </c>
       <c r="AL190">
-        <v>0.2692307692307692</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="191" spans="1:38">
@@ -22994,7 +23030,7 @@
         <v>0</v>
       </c>
       <c r="AL191">
-        <v>0.2692307692307692</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="192" spans="1:38">
@@ -23110,7 +23146,7 @@
         <v>0</v>
       </c>
       <c r="AL192">
-        <v>0.2692307692307692</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="193" spans="1:38">
@@ -23226,7 +23262,7 @@
         <v>0</v>
       </c>
       <c r="AL193">
-        <v>0.2692307692307692</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="194" spans="1:38">
@@ -23342,7 +23378,7 @@
         <v>0</v>
       </c>
       <c r="AL194">
-        <v>0.2692307692307692</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="195" spans="1:38">
@@ -23458,7 +23494,7 @@
         <v>0</v>
       </c>
       <c r="AL195">
-        <v>0.2692307692307692</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="196" spans="1:38">
@@ -23574,7 +23610,7 @@
         <v>0</v>
       </c>
       <c r="AL196">
-        <v>0.2692307692307692</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="197" spans="1:38">
@@ -23690,7 +23726,7 @@
         <v>0</v>
       </c>
       <c r="AL197">
-        <v>0.2692307692307692</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="198" spans="1:38">
@@ -23806,7 +23842,7 @@
         <v>0</v>
       </c>
       <c r="AL198">
-        <v>0.2692307692307692</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="199" spans="1:38">
@@ -23922,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="AL199">
-        <v>0.2692307692307692</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="200" spans="1:38">
@@ -24038,7 +24074,7 @@
         <v>0</v>
       </c>
       <c r="AL200">
-        <v>0.2692307692307692</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="201" spans="1:38">
@@ -24154,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="AL201">
-        <v>0.2692307692307692</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="202" spans="1:38">
@@ -24270,7 +24306,7 @@
         <v>0</v>
       </c>
       <c r="AL202">
-        <v>0.2692307692307692</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="203" spans="1:38">
@@ -24386,7 +24422,7 @@
         <v>0</v>
       </c>
       <c r="AL203">
-        <v>0.2692307692307692</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="204" spans="1:38">
@@ -24502,7 +24538,7 @@
         <v>0</v>
       </c>
       <c r="AL204">
-        <v>0.2692307692307692</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="205" spans="1:38">
@@ -24618,7 +24654,7 @@
         <v>0</v>
       </c>
       <c r="AL205">
-        <v>0.2692307692307692</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="206" spans="1:38">
@@ -24734,7 +24770,7 @@
         <v>0</v>
       </c>
       <c r="AL206">
-        <v>0.2692307692307692</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="207" spans="1:38">
@@ -24850,7 +24886,7 @@
         <v>0</v>
       </c>
       <c r="AL207">
-        <v>0.2692307692307692</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="208" spans="1:38">
@@ -24966,7 +25002,7 @@
         <v>0</v>
       </c>
       <c r="AL208">
-        <v>0.2692307692307692</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="209" spans="1:38">
@@ -25082,7 +25118,7 @@
         <v>0</v>
       </c>
       <c r="AL209">
-        <v>0.2692307692307692</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="210" spans="1:38">
@@ -25198,7 +25234,7 @@
         <v>0</v>
       </c>
       <c r="AL210">
-        <v>0.2692307692307692</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="211" spans="1:38">
@@ -25314,7 +25350,7 @@
         <v>0</v>
       </c>
       <c r="AL211">
-        <v>0.2692307692307692</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="212" spans="1:38">
@@ -25430,7 +25466,7 @@
         <v>0</v>
       </c>
       <c r="AL212">
-        <v>0.2692307692307692</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="213" spans="1:38">
@@ -25546,7 +25582,7 @@
         <v>0</v>
       </c>
       <c r="AL213">
-        <v>0.2692307692307692</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="214" spans="1:38">
@@ -25662,7 +25698,7 @@
         <v>0</v>
       </c>
       <c r="AL214">
-        <v>0.2692307692307692</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="215" spans="1:38">
@@ -25778,7 +25814,7 @@
         <v>0</v>
       </c>
       <c r="AL215">
-        <v>0.2692307692307692</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="216" spans="1:38">
@@ -25894,7 +25930,7 @@
         <v>0</v>
       </c>
       <c r="AL216">
-        <v>0.2692307692307692</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="217" spans="1:38">
@@ -26010,7 +26046,7 @@
         <v>0</v>
       </c>
       <c r="AL217">
-        <v>0.2692307692307692</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="218" spans="1:38">
@@ -26126,7 +26162,7 @@
         <v>0</v>
       </c>
       <c r="AL218">
-        <v>0.2692307692307692</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="219" spans="1:38">
@@ -26242,7 +26278,7 @@
         <v>0</v>
       </c>
       <c r="AL219">
-        <v>0.2692307692307692</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="220" spans="1:38">
@@ -26358,7 +26394,7 @@
         <v>0</v>
       </c>
       <c r="AL220">
-        <v>0.2692307692307692</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="221" spans="1:38">
@@ -26474,7 +26510,1399 @@
         <v>0</v>
       </c>
       <c r="AL221">
-        <v>0.2692307692307692</v>
+        <v>0.2916666666666667</v>
+      </c>
+    </row>
+    <row r="222" spans="1:38">
+      <c r="A222" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B222">
+        <v>0</v>
+      </c>
+      <c r="C222">
+        <v>0</v>
+      </c>
+      <c r="D222">
+        <v>1</v>
+      </c>
+      <c r="E222">
+        <v>0</v>
+      </c>
+      <c r="F222">
+        <v>1</v>
+      </c>
+      <c r="G222">
+        <v>0</v>
+      </c>
+      <c r="H222">
+        <v>0</v>
+      </c>
+      <c r="I222">
+        <v>0</v>
+      </c>
+      <c r="J222">
+        <v>0</v>
+      </c>
+      <c r="K222">
+        <v>0</v>
+      </c>
+      <c r="L222">
+        <v>0</v>
+      </c>
+      <c r="M222">
+        <v>0</v>
+      </c>
+      <c r="N222">
+        <v>0</v>
+      </c>
+      <c r="O222">
+        <v>0</v>
+      </c>
+      <c r="P222">
+        <v>0</v>
+      </c>
+      <c r="Q222">
+        <v>0</v>
+      </c>
+      <c r="R222">
+        <v>0</v>
+      </c>
+      <c r="S222">
+        <v>0</v>
+      </c>
+      <c r="T222">
+        <v>0</v>
+      </c>
+      <c r="U222">
+        <v>0</v>
+      </c>
+      <c r="V222">
+        <v>0</v>
+      </c>
+      <c r="W222">
+        <v>0</v>
+      </c>
+      <c r="X222">
+        <v>0</v>
+      </c>
+      <c r="Y222">
+        <v>0</v>
+      </c>
+      <c r="Z222">
+        <v>0</v>
+      </c>
+      <c r="AA222">
+        <v>0</v>
+      </c>
+      <c r="AB222">
+        <v>0</v>
+      </c>
+      <c r="AC222">
+        <v>0</v>
+      </c>
+      <c r="AD222">
+        <v>0</v>
+      </c>
+      <c r="AE222">
+        <v>0</v>
+      </c>
+      <c r="AF222">
+        <v>0</v>
+      </c>
+      <c r="AG222">
+        <v>1</v>
+      </c>
+      <c r="AH222">
+        <v>1</v>
+      </c>
+      <c r="AI222">
+        <v>1</v>
+      </c>
+      <c r="AJ222">
+        <v>1</v>
+      </c>
+      <c r="AK222">
+        <v>0</v>
+      </c>
+      <c r="AL222">
+        <v>0.2916666666666667</v>
+      </c>
+    </row>
+    <row r="223" spans="1:38">
+      <c r="A223" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B223">
+        <v>0</v>
+      </c>
+      <c r="C223">
+        <v>0</v>
+      </c>
+      <c r="D223">
+        <v>1</v>
+      </c>
+      <c r="E223">
+        <v>0</v>
+      </c>
+      <c r="F223">
+        <v>1</v>
+      </c>
+      <c r="G223">
+        <v>0</v>
+      </c>
+      <c r="H223">
+        <v>0</v>
+      </c>
+      <c r="I223">
+        <v>0</v>
+      </c>
+      <c r="J223">
+        <v>0</v>
+      </c>
+      <c r="K223">
+        <v>0</v>
+      </c>
+      <c r="L223">
+        <v>0</v>
+      </c>
+      <c r="M223">
+        <v>0</v>
+      </c>
+      <c r="N223">
+        <v>0</v>
+      </c>
+      <c r="O223">
+        <v>0</v>
+      </c>
+      <c r="P223">
+        <v>0</v>
+      </c>
+      <c r="Q223">
+        <v>0</v>
+      </c>
+      <c r="R223">
+        <v>0</v>
+      </c>
+      <c r="S223">
+        <v>0</v>
+      </c>
+      <c r="T223">
+        <v>0</v>
+      </c>
+      <c r="U223">
+        <v>0</v>
+      </c>
+      <c r="V223">
+        <v>0</v>
+      </c>
+      <c r="W223">
+        <v>0</v>
+      </c>
+      <c r="X223">
+        <v>0</v>
+      </c>
+      <c r="Y223">
+        <v>0</v>
+      </c>
+      <c r="Z223">
+        <v>0</v>
+      </c>
+      <c r="AA223">
+        <v>0</v>
+      </c>
+      <c r="AB223">
+        <v>0</v>
+      </c>
+      <c r="AC223">
+        <v>0</v>
+      </c>
+      <c r="AD223">
+        <v>0</v>
+      </c>
+      <c r="AE223">
+        <v>0</v>
+      </c>
+      <c r="AF223">
+        <v>0</v>
+      </c>
+      <c r="AG223">
+        <v>1</v>
+      </c>
+      <c r="AH223">
+        <v>1</v>
+      </c>
+      <c r="AI223">
+        <v>1</v>
+      </c>
+      <c r="AJ223">
+        <v>1</v>
+      </c>
+      <c r="AK223">
+        <v>0</v>
+      </c>
+      <c r="AL223">
+        <v>0.2916666666666667</v>
+      </c>
+    </row>
+    <row r="224" spans="1:38">
+      <c r="A224" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B224">
+        <v>0</v>
+      </c>
+      <c r="C224">
+        <v>0</v>
+      </c>
+      <c r="D224">
+        <v>1</v>
+      </c>
+      <c r="E224">
+        <v>0</v>
+      </c>
+      <c r="F224">
+        <v>1</v>
+      </c>
+      <c r="G224">
+        <v>0</v>
+      </c>
+      <c r="H224">
+        <v>0</v>
+      </c>
+      <c r="I224">
+        <v>0</v>
+      </c>
+      <c r="J224">
+        <v>0</v>
+      </c>
+      <c r="K224">
+        <v>0</v>
+      </c>
+      <c r="L224">
+        <v>0</v>
+      </c>
+      <c r="M224">
+        <v>0</v>
+      </c>
+      <c r="N224">
+        <v>0</v>
+      </c>
+      <c r="O224">
+        <v>0</v>
+      </c>
+      <c r="P224">
+        <v>0</v>
+      </c>
+      <c r="Q224">
+        <v>0</v>
+      </c>
+      <c r="R224">
+        <v>0</v>
+      </c>
+      <c r="S224">
+        <v>0</v>
+      </c>
+      <c r="T224">
+        <v>0</v>
+      </c>
+      <c r="U224">
+        <v>0</v>
+      </c>
+      <c r="V224">
+        <v>0</v>
+      </c>
+      <c r="W224">
+        <v>0</v>
+      </c>
+      <c r="X224">
+        <v>0</v>
+      </c>
+      <c r="Y224">
+        <v>0</v>
+      </c>
+      <c r="Z224">
+        <v>0</v>
+      </c>
+      <c r="AA224">
+        <v>0</v>
+      </c>
+      <c r="AB224">
+        <v>0</v>
+      </c>
+      <c r="AC224">
+        <v>0</v>
+      </c>
+      <c r="AD224">
+        <v>0</v>
+      </c>
+      <c r="AE224">
+        <v>0</v>
+      </c>
+      <c r="AF224">
+        <v>0</v>
+      </c>
+      <c r="AG224">
+        <v>1</v>
+      </c>
+      <c r="AH224">
+        <v>1</v>
+      </c>
+      <c r="AI224">
+        <v>1</v>
+      </c>
+      <c r="AJ224">
+        <v>1</v>
+      </c>
+      <c r="AK224">
+        <v>0</v>
+      </c>
+      <c r="AL224">
+        <v>0.2916666666666667</v>
+      </c>
+    </row>
+    <row r="225" spans="1:38">
+      <c r="A225" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B225">
+        <v>0</v>
+      </c>
+      <c r="C225">
+        <v>0</v>
+      </c>
+      <c r="D225">
+        <v>1</v>
+      </c>
+      <c r="E225">
+        <v>0</v>
+      </c>
+      <c r="F225">
+        <v>1</v>
+      </c>
+      <c r="G225">
+        <v>0</v>
+      </c>
+      <c r="H225">
+        <v>0</v>
+      </c>
+      <c r="I225">
+        <v>0</v>
+      </c>
+      <c r="J225">
+        <v>0</v>
+      </c>
+      <c r="K225">
+        <v>0</v>
+      </c>
+      <c r="L225">
+        <v>0</v>
+      </c>
+      <c r="M225">
+        <v>0</v>
+      </c>
+      <c r="N225">
+        <v>0</v>
+      </c>
+      <c r="O225">
+        <v>0</v>
+      </c>
+      <c r="P225">
+        <v>0</v>
+      </c>
+      <c r="Q225">
+        <v>0</v>
+      </c>
+      <c r="R225">
+        <v>0</v>
+      </c>
+      <c r="S225">
+        <v>0</v>
+      </c>
+      <c r="T225">
+        <v>0</v>
+      </c>
+      <c r="U225">
+        <v>0</v>
+      </c>
+      <c r="V225">
+        <v>0</v>
+      </c>
+      <c r="W225">
+        <v>0</v>
+      </c>
+      <c r="X225">
+        <v>0</v>
+      </c>
+      <c r="Y225">
+        <v>0</v>
+      </c>
+      <c r="Z225">
+        <v>0</v>
+      </c>
+      <c r="AA225">
+        <v>0</v>
+      </c>
+      <c r="AB225">
+        <v>0</v>
+      </c>
+      <c r="AC225">
+        <v>0</v>
+      </c>
+      <c r="AD225">
+        <v>0</v>
+      </c>
+      <c r="AE225">
+        <v>0</v>
+      </c>
+      <c r="AF225">
+        <v>0</v>
+      </c>
+      <c r="AG225">
+        <v>1</v>
+      </c>
+      <c r="AH225">
+        <v>1</v>
+      </c>
+      <c r="AI225">
+        <v>1</v>
+      </c>
+      <c r="AJ225">
+        <v>1</v>
+      </c>
+      <c r="AK225">
+        <v>0</v>
+      </c>
+      <c r="AL225">
+        <v>0.2916666666666667</v>
+      </c>
+    </row>
+    <row r="226" spans="1:38">
+      <c r="A226" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B226">
+        <v>0</v>
+      </c>
+      <c r="C226">
+        <v>0</v>
+      </c>
+      <c r="D226">
+        <v>1</v>
+      </c>
+      <c r="E226">
+        <v>0</v>
+      </c>
+      <c r="F226">
+        <v>1</v>
+      </c>
+      <c r="G226">
+        <v>0</v>
+      </c>
+      <c r="H226">
+        <v>0</v>
+      </c>
+      <c r="I226">
+        <v>0</v>
+      </c>
+      <c r="J226">
+        <v>0</v>
+      </c>
+      <c r="K226">
+        <v>0</v>
+      </c>
+      <c r="L226">
+        <v>0</v>
+      </c>
+      <c r="M226">
+        <v>0</v>
+      </c>
+      <c r="N226">
+        <v>0</v>
+      </c>
+      <c r="O226">
+        <v>0</v>
+      </c>
+      <c r="P226">
+        <v>0</v>
+      </c>
+      <c r="Q226">
+        <v>0</v>
+      </c>
+      <c r="R226">
+        <v>0</v>
+      </c>
+      <c r="S226">
+        <v>0</v>
+      </c>
+      <c r="T226">
+        <v>0</v>
+      </c>
+      <c r="U226">
+        <v>0</v>
+      </c>
+      <c r="V226">
+        <v>0</v>
+      </c>
+      <c r="W226">
+        <v>0</v>
+      </c>
+      <c r="X226">
+        <v>0</v>
+      </c>
+      <c r="Y226">
+        <v>0</v>
+      </c>
+      <c r="Z226">
+        <v>0</v>
+      </c>
+      <c r="AA226">
+        <v>0</v>
+      </c>
+      <c r="AB226">
+        <v>0</v>
+      </c>
+      <c r="AC226">
+        <v>0</v>
+      </c>
+      <c r="AD226">
+        <v>0</v>
+      </c>
+      <c r="AE226">
+        <v>0</v>
+      </c>
+      <c r="AF226">
+        <v>0</v>
+      </c>
+      <c r="AG226">
+        <v>1</v>
+      </c>
+      <c r="AH226">
+        <v>1</v>
+      </c>
+      <c r="AI226">
+        <v>1</v>
+      </c>
+      <c r="AJ226">
+        <v>1</v>
+      </c>
+      <c r="AK226">
+        <v>0</v>
+      </c>
+      <c r="AL226">
+        <v>0.2916666666666667</v>
+      </c>
+    </row>
+    <row r="227" spans="1:38">
+      <c r="A227" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B227">
+        <v>0</v>
+      </c>
+      <c r="C227">
+        <v>0</v>
+      </c>
+      <c r="D227">
+        <v>1</v>
+      </c>
+      <c r="E227">
+        <v>0</v>
+      </c>
+      <c r="F227">
+        <v>1</v>
+      </c>
+      <c r="G227">
+        <v>0</v>
+      </c>
+      <c r="H227">
+        <v>0</v>
+      </c>
+      <c r="I227">
+        <v>0</v>
+      </c>
+      <c r="J227">
+        <v>0</v>
+      </c>
+      <c r="K227">
+        <v>0</v>
+      </c>
+      <c r="L227">
+        <v>0</v>
+      </c>
+      <c r="M227">
+        <v>0</v>
+      </c>
+      <c r="N227">
+        <v>0</v>
+      </c>
+      <c r="O227">
+        <v>0</v>
+      </c>
+      <c r="P227">
+        <v>0</v>
+      </c>
+      <c r="Q227">
+        <v>0</v>
+      </c>
+      <c r="R227">
+        <v>0</v>
+      </c>
+      <c r="S227">
+        <v>0</v>
+      </c>
+      <c r="T227">
+        <v>0</v>
+      </c>
+      <c r="U227">
+        <v>0</v>
+      </c>
+      <c r="V227">
+        <v>0</v>
+      </c>
+      <c r="W227">
+        <v>0</v>
+      </c>
+      <c r="X227">
+        <v>0</v>
+      </c>
+      <c r="Y227">
+        <v>0</v>
+      </c>
+      <c r="Z227">
+        <v>0</v>
+      </c>
+      <c r="AA227">
+        <v>0</v>
+      </c>
+      <c r="AB227">
+        <v>0</v>
+      </c>
+      <c r="AC227">
+        <v>0</v>
+      </c>
+      <c r="AD227">
+        <v>0</v>
+      </c>
+      <c r="AE227">
+        <v>0</v>
+      </c>
+      <c r="AF227">
+        <v>0</v>
+      </c>
+      <c r="AG227">
+        <v>1</v>
+      </c>
+      <c r="AH227">
+        <v>1</v>
+      </c>
+      <c r="AI227">
+        <v>1</v>
+      </c>
+      <c r="AJ227">
+        <v>1</v>
+      </c>
+      <c r="AK227">
+        <v>0</v>
+      </c>
+      <c r="AL227">
+        <v>0.2916666666666667</v>
+      </c>
+    </row>
+    <row r="228" spans="1:38">
+      <c r="A228" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B228">
+        <v>0</v>
+      </c>
+      <c r="C228">
+        <v>0</v>
+      </c>
+      <c r="D228">
+        <v>1</v>
+      </c>
+      <c r="E228">
+        <v>0</v>
+      </c>
+      <c r="F228">
+        <v>1</v>
+      </c>
+      <c r="G228">
+        <v>0</v>
+      </c>
+      <c r="H228">
+        <v>0</v>
+      </c>
+      <c r="I228">
+        <v>0</v>
+      </c>
+      <c r="J228">
+        <v>0</v>
+      </c>
+      <c r="K228">
+        <v>0</v>
+      </c>
+      <c r="L228">
+        <v>0</v>
+      </c>
+      <c r="M228">
+        <v>0</v>
+      </c>
+      <c r="N228">
+        <v>0</v>
+      </c>
+      <c r="O228">
+        <v>0</v>
+      </c>
+      <c r="P228">
+        <v>0</v>
+      </c>
+      <c r="Q228">
+        <v>0</v>
+      </c>
+      <c r="R228">
+        <v>0</v>
+      </c>
+      <c r="S228">
+        <v>0</v>
+      </c>
+      <c r="T228">
+        <v>0</v>
+      </c>
+      <c r="U228">
+        <v>0</v>
+      </c>
+      <c r="V228">
+        <v>0</v>
+      </c>
+      <c r="W228">
+        <v>0</v>
+      </c>
+      <c r="X228">
+        <v>0</v>
+      </c>
+      <c r="Y228">
+        <v>0</v>
+      </c>
+      <c r="Z228">
+        <v>0</v>
+      </c>
+      <c r="AA228">
+        <v>0</v>
+      </c>
+      <c r="AB228">
+        <v>0</v>
+      </c>
+      <c r="AC228">
+        <v>0</v>
+      </c>
+      <c r="AD228">
+        <v>0</v>
+      </c>
+      <c r="AE228">
+        <v>0</v>
+      </c>
+      <c r="AF228">
+        <v>0</v>
+      </c>
+      <c r="AG228">
+        <v>1</v>
+      </c>
+      <c r="AH228">
+        <v>1</v>
+      </c>
+      <c r="AI228">
+        <v>1</v>
+      </c>
+      <c r="AJ228">
+        <v>1</v>
+      </c>
+      <c r="AK228">
+        <v>0</v>
+      </c>
+      <c r="AL228">
+        <v>0.2916666666666667</v>
+      </c>
+    </row>
+    <row r="229" spans="1:38">
+      <c r="A229" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B229">
+        <v>0</v>
+      </c>
+      <c r="C229">
+        <v>0</v>
+      </c>
+      <c r="D229">
+        <v>1</v>
+      </c>
+      <c r="E229">
+        <v>0</v>
+      </c>
+      <c r="F229">
+        <v>1</v>
+      </c>
+      <c r="G229">
+        <v>0</v>
+      </c>
+      <c r="H229">
+        <v>0</v>
+      </c>
+      <c r="I229">
+        <v>0</v>
+      </c>
+      <c r="J229">
+        <v>0</v>
+      </c>
+      <c r="K229">
+        <v>0</v>
+      </c>
+      <c r="L229">
+        <v>0</v>
+      </c>
+      <c r="M229">
+        <v>0</v>
+      </c>
+      <c r="N229">
+        <v>0</v>
+      </c>
+      <c r="O229">
+        <v>0</v>
+      </c>
+      <c r="P229">
+        <v>0</v>
+      </c>
+      <c r="Q229">
+        <v>0</v>
+      </c>
+      <c r="R229">
+        <v>0</v>
+      </c>
+      <c r="S229">
+        <v>0</v>
+      </c>
+      <c r="T229">
+        <v>0</v>
+      </c>
+      <c r="U229">
+        <v>0</v>
+      </c>
+      <c r="V229">
+        <v>0</v>
+      </c>
+      <c r="W229">
+        <v>0</v>
+      </c>
+      <c r="X229">
+        <v>0</v>
+      </c>
+      <c r="Y229">
+        <v>0</v>
+      </c>
+      <c r="Z229">
+        <v>0</v>
+      </c>
+      <c r="AA229">
+        <v>0</v>
+      </c>
+      <c r="AB229">
+        <v>0</v>
+      </c>
+      <c r="AC229">
+        <v>0</v>
+      </c>
+      <c r="AD229">
+        <v>0</v>
+      </c>
+      <c r="AE229">
+        <v>0</v>
+      </c>
+      <c r="AF229">
+        <v>0</v>
+      </c>
+      <c r="AG229">
+        <v>1</v>
+      </c>
+      <c r="AH229">
+        <v>1</v>
+      </c>
+      <c r="AI229">
+        <v>1</v>
+      </c>
+      <c r="AJ229">
+        <v>1</v>
+      </c>
+      <c r="AK229">
+        <v>0</v>
+      </c>
+      <c r="AL229">
+        <v>0.2916666666666667</v>
+      </c>
+    </row>
+    <row r="230" spans="1:38">
+      <c r="A230" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B230">
+        <v>0</v>
+      </c>
+      <c r="C230">
+        <v>0</v>
+      </c>
+      <c r="D230">
+        <v>1</v>
+      </c>
+      <c r="E230">
+        <v>0</v>
+      </c>
+      <c r="F230">
+        <v>1</v>
+      </c>
+      <c r="G230">
+        <v>0</v>
+      </c>
+      <c r="H230">
+        <v>0</v>
+      </c>
+      <c r="I230">
+        <v>0</v>
+      </c>
+      <c r="J230">
+        <v>0</v>
+      </c>
+      <c r="K230">
+        <v>0</v>
+      </c>
+      <c r="L230">
+        <v>0</v>
+      </c>
+      <c r="M230">
+        <v>0</v>
+      </c>
+      <c r="N230">
+        <v>0</v>
+      </c>
+      <c r="O230">
+        <v>0</v>
+      </c>
+      <c r="P230">
+        <v>0</v>
+      </c>
+      <c r="Q230">
+        <v>0</v>
+      </c>
+      <c r="R230">
+        <v>0</v>
+      </c>
+      <c r="S230">
+        <v>0</v>
+      </c>
+      <c r="T230">
+        <v>0</v>
+      </c>
+      <c r="U230">
+        <v>0</v>
+      </c>
+      <c r="V230">
+        <v>0</v>
+      </c>
+      <c r="W230">
+        <v>0</v>
+      </c>
+      <c r="X230">
+        <v>0</v>
+      </c>
+      <c r="Y230">
+        <v>0</v>
+      </c>
+      <c r="Z230">
+        <v>0</v>
+      </c>
+      <c r="AA230">
+        <v>0</v>
+      </c>
+      <c r="AB230">
+        <v>0</v>
+      </c>
+      <c r="AC230">
+        <v>0</v>
+      </c>
+      <c r="AD230">
+        <v>0</v>
+      </c>
+      <c r="AE230">
+        <v>0</v>
+      </c>
+      <c r="AF230">
+        <v>0</v>
+      </c>
+      <c r="AG230">
+        <v>1</v>
+      </c>
+      <c r="AH230">
+        <v>1</v>
+      </c>
+      <c r="AI230">
+        <v>1</v>
+      </c>
+      <c r="AJ230">
+        <v>1</v>
+      </c>
+      <c r="AK230">
+        <v>0</v>
+      </c>
+      <c r="AL230">
+        <v>0.2916666666666667</v>
+      </c>
+    </row>
+    <row r="231" spans="1:38">
+      <c r="A231" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B231">
+        <v>0</v>
+      </c>
+      <c r="C231">
+        <v>0</v>
+      </c>
+      <c r="D231">
+        <v>1</v>
+      </c>
+      <c r="E231">
+        <v>0</v>
+      </c>
+      <c r="F231">
+        <v>1</v>
+      </c>
+      <c r="G231">
+        <v>0</v>
+      </c>
+      <c r="H231">
+        <v>0</v>
+      </c>
+      <c r="I231">
+        <v>0</v>
+      </c>
+      <c r="J231">
+        <v>0</v>
+      </c>
+      <c r="K231">
+        <v>0</v>
+      </c>
+      <c r="L231">
+        <v>0</v>
+      </c>
+      <c r="M231">
+        <v>0</v>
+      </c>
+      <c r="N231">
+        <v>0</v>
+      </c>
+      <c r="O231">
+        <v>0</v>
+      </c>
+      <c r="P231">
+        <v>0</v>
+      </c>
+      <c r="Q231">
+        <v>0</v>
+      </c>
+      <c r="R231">
+        <v>0</v>
+      </c>
+      <c r="S231">
+        <v>0</v>
+      </c>
+      <c r="T231">
+        <v>0</v>
+      </c>
+      <c r="U231">
+        <v>0</v>
+      </c>
+      <c r="V231">
+        <v>0</v>
+      </c>
+      <c r="W231">
+        <v>0</v>
+      </c>
+      <c r="X231">
+        <v>0</v>
+      </c>
+      <c r="Y231">
+        <v>0</v>
+      </c>
+      <c r="Z231">
+        <v>0</v>
+      </c>
+      <c r="AA231">
+        <v>0</v>
+      </c>
+      <c r="AB231">
+        <v>0</v>
+      </c>
+      <c r="AC231">
+        <v>0</v>
+      </c>
+      <c r="AD231">
+        <v>0</v>
+      </c>
+      <c r="AE231">
+        <v>0</v>
+      </c>
+      <c r="AF231">
+        <v>0</v>
+      </c>
+      <c r="AG231">
+        <v>1</v>
+      </c>
+      <c r="AH231">
+        <v>1</v>
+      </c>
+      <c r="AI231">
+        <v>1</v>
+      </c>
+      <c r="AJ231">
+        <v>1</v>
+      </c>
+      <c r="AK231">
+        <v>0</v>
+      </c>
+      <c r="AL231">
+        <v>0.2916666666666667</v>
+      </c>
+    </row>
+    <row r="232" spans="1:38">
+      <c r="A232" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B232">
+        <v>0</v>
+      </c>
+      <c r="C232">
+        <v>0</v>
+      </c>
+      <c r="D232">
+        <v>1</v>
+      </c>
+      <c r="E232">
+        <v>0</v>
+      </c>
+      <c r="F232">
+        <v>1</v>
+      </c>
+      <c r="G232">
+        <v>0</v>
+      </c>
+      <c r="H232">
+        <v>0</v>
+      </c>
+      <c r="I232">
+        <v>0</v>
+      </c>
+      <c r="J232">
+        <v>0</v>
+      </c>
+      <c r="K232">
+        <v>0</v>
+      </c>
+      <c r="L232">
+        <v>0</v>
+      </c>
+      <c r="M232">
+        <v>0</v>
+      </c>
+      <c r="N232">
+        <v>0</v>
+      </c>
+      <c r="O232">
+        <v>0</v>
+      </c>
+      <c r="P232">
+        <v>0</v>
+      </c>
+      <c r="Q232">
+        <v>0</v>
+      </c>
+      <c r="R232">
+        <v>0</v>
+      </c>
+      <c r="S232">
+        <v>0</v>
+      </c>
+      <c r="T232">
+        <v>0</v>
+      </c>
+      <c r="U232">
+        <v>0</v>
+      </c>
+      <c r="V232">
+        <v>0</v>
+      </c>
+      <c r="W232">
+        <v>0</v>
+      </c>
+      <c r="X232">
+        <v>0</v>
+      </c>
+      <c r="Y232">
+        <v>0</v>
+      </c>
+      <c r="Z232">
+        <v>0</v>
+      </c>
+      <c r="AA232">
+        <v>0</v>
+      </c>
+      <c r="AB232">
+        <v>0</v>
+      </c>
+      <c r="AC232">
+        <v>0</v>
+      </c>
+      <c r="AD232">
+        <v>0</v>
+      </c>
+      <c r="AE232">
+        <v>0</v>
+      </c>
+      <c r="AF232">
+        <v>0</v>
+      </c>
+      <c r="AG232">
+        <v>1</v>
+      </c>
+      <c r="AH232">
+        <v>1</v>
+      </c>
+      <c r="AI232">
+        <v>1</v>
+      </c>
+      <c r="AJ232">
+        <v>1</v>
+      </c>
+      <c r="AK232">
+        <v>0</v>
+      </c>
+      <c r="AL232">
+        <v>0.2916666666666667</v>
+      </c>
+    </row>
+    <row r="233" spans="1:38">
+      <c r="A233" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B233">
+        <v>0</v>
+      </c>
+      <c r="C233">
+        <v>0</v>
+      </c>
+      <c r="D233">
+        <v>1</v>
+      </c>
+      <c r="E233">
+        <v>0</v>
+      </c>
+      <c r="F233">
+        <v>1</v>
+      </c>
+      <c r="G233">
+        <v>0</v>
+      </c>
+      <c r="H233">
+        <v>0</v>
+      </c>
+      <c r="I233">
+        <v>0</v>
+      </c>
+      <c r="J233">
+        <v>0</v>
+      </c>
+      <c r="K233">
+        <v>0</v>
+      </c>
+      <c r="L233">
+        <v>0</v>
+      </c>
+      <c r="M233">
+        <v>0</v>
+      </c>
+      <c r="N233">
+        <v>0</v>
+      </c>
+      <c r="O233">
+        <v>0</v>
+      </c>
+      <c r="P233">
+        <v>0</v>
+      </c>
+      <c r="Q233">
+        <v>0</v>
+      </c>
+      <c r="R233">
+        <v>0</v>
+      </c>
+      <c r="S233">
+        <v>0</v>
+      </c>
+      <c r="T233">
+        <v>0</v>
+      </c>
+      <c r="U233">
+        <v>0</v>
+      </c>
+      <c r="V233">
+        <v>0</v>
+      </c>
+      <c r="W233">
+        <v>0</v>
+      </c>
+      <c r="X233">
+        <v>0</v>
+      </c>
+      <c r="Y233">
+        <v>0</v>
+      </c>
+      <c r="Z233">
+        <v>0</v>
+      </c>
+      <c r="AA233">
+        <v>0</v>
+      </c>
+      <c r="AB233">
+        <v>0</v>
+      </c>
+      <c r="AC233">
+        <v>0</v>
+      </c>
+      <c r="AD233">
+        <v>0</v>
+      </c>
+      <c r="AE233">
+        <v>0</v>
+      </c>
+      <c r="AF233">
+        <v>0</v>
+      </c>
+      <c r="AG233">
+        <v>1</v>
+      </c>
+      <c r="AH233">
+        <v>1</v>
+      </c>
+      <c r="AI233">
+        <v>1</v>
+      </c>
+      <c r="AJ233">
+        <v>1</v>
+      </c>
+      <c r="AK233">
+        <v>0</v>
+      </c>
+      <c r="AL233">
+        <v>0.2916666666666667</v>
       </c>
     </row>
   </sheetData>
